--- a/test_data/1990-21_K8130344.annotated.final_filtered.xlsx
+++ b/test_data/1990-21_K8130344.annotated.final_filtered.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ajcox\Desktop\Genexus_runs\220126_p230424\final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vcasler\GitHub\VCF-viewer\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0D81989-C4C2-4FE6-9514-72460C1C6F8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1DE3C42-1077-4C15-9170-961F78F3CA66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1990-21_K8130344.annotated.fina" sheetId="1" r:id="rId1"/>
@@ -1512,16 +1512,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BN18"/>
+  <dimension ref="A1:BQ18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I15" sqref="I15"/>
+      <selection pane="bottomLeft" activeCell="BA1" sqref="BA1:BA1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1543,185 +1543,185 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AU1" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AV1" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AW1" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AX1" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AY1" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AZ1" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="BB1" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BC1" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BD1" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BE1" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BF1" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BG1" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BH1" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BI1" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BJ1" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BK1" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BL1" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BM1" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BN1" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BO1" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BP1" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BQ1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:66" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:69" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>66</v>
       </c>
@@ -1743,182 +1743,182 @@
       <c r="G2" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="H2" s="3">
+      <c r="I2" s="3">
         <v>0.10623199999999999</v>
       </c>
-      <c r="I2" s="3">
+      <c r="J2" s="3">
         <v>225</v>
       </c>
-      <c r="J2" s="3">
+      <c r="K2" s="3">
         <v>2118</v>
       </c>
-      <c r="K2" s="3">
+      <c r="L2" s="3">
         <v>2</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="O2" s="3">
+      <c r="P2" s="3">
         <v>964</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="Q2" s="3">
+      <c r="R2" s="3">
         <v>39648</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="S2" s="4">
+      <c r="T2" s="4">
         <v>1.3961199999999999E-5</v>
       </c>
-      <c r="T2" s="3">
+      <c r="U2" s="3">
         <v>7.9050000000000002</v>
       </c>
-      <c r="U2" s="3">
+      <c r="V2" s="3">
         <v>24.7</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="W2" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="X2" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="X2" s="3">
+      <c r="Y2" s="3">
         <v>78</v>
       </c>
-      <c r="Y2" s="3">
+      <c r="Z2" s="3">
         <v>147</v>
       </c>
-      <c r="Z2" s="3">
+      <c r="AA2" s="3">
         <v>605</v>
       </c>
-      <c r="AA2" s="3">
+      <c r="AB2" s="3">
         <v>1286</v>
       </c>
-      <c r="AB2" s="3">
+      <c r="AC2" s="3">
         <v>1.13362991704575</v>
       </c>
-      <c r="AC2" s="3">
+      <c r="AD2" s="3">
         <v>0.45073426588717502</v>
       </c>
-      <c r="AD2" s="3">
+      <c r="AE2" s="3">
         <v>0.34801762114537399</v>
       </c>
-      <c r="AE2" s="4">
+      <c r="AF2" s="4">
         <v>5.4544656666487E-6</v>
       </c>
-      <c r="AF2" s="3">
+      <c r="AG2" s="3">
         <v>2078</v>
       </c>
-      <c r="AG2" s="3">
+      <c r="AH2" s="3">
         <v>3</v>
       </c>
-      <c r="AH2" s="3">
-        <v>0</v>
-      </c>
       <c r="AI2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ2" s="3">
         <v>605</v>
       </c>
-      <c r="AJ2" s="3">
+      <c r="AK2" s="3">
         <v>1251</v>
       </c>
-      <c r="AK2" s="3">
+      <c r="AL2" s="3">
         <v>605</v>
       </c>
-      <c r="AL2" s="3">
+      <c r="AM2" s="3">
         <v>1251</v>
       </c>
-      <c r="AM2" s="3">
+      <c r="AN2" s="3">
         <v>77</v>
       </c>
-      <c r="AN2" s="3">
+      <c r="AO2" s="3">
         <v>145</v>
       </c>
-      <c r="AO2" s="3">
+      <c r="AP2" s="3">
         <v>0.34820000000000001</v>
       </c>
-      <c r="AP2" s="3">
-        <v>0</v>
-      </c>
       <c r="AQ2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR2" s="3">
         <v>1.1037999999999999</v>
       </c>
-      <c r="AR2" s="3">
+      <c r="AS2" s="3">
         <v>0.54549999999999998</v>
       </c>
-      <c r="AS2" s="3">
+      <c r="AU2" s="3">
         <v>77</v>
       </c>
-      <c r="AT2" s="3">
+      <c r="AV2" s="3">
         <v>145</v>
       </c>
-      <c r="AU2" s="3">
+      <c r="AW2" s="3">
         <v>0.34820000000000001</v>
       </c>
-      <c r="AV2" s="3">
-        <v>0</v>
-      </c>
-      <c r="AW2" s="3">
+      <c r="AX2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AY2" s="3">
         <v>1.1037999999999999</v>
       </c>
-      <c r="AX2" s="3">
+      <c r="AZ2" s="3">
         <v>0.54549999999999998</v>
       </c>
-      <c r="AY2" s="3">
-        <v>1</v>
-      </c>
-      <c r="AZ2" s="3">
+      <c r="BB2" s="3">
+        <v>1</v>
+      </c>
+      <c r="BC2" s="3">
         <v>2.8103899999999999</v>
       </c>
-      <c r="BA2" s="3">
+      <c r="BD2" s="3">
         <v>0.52679900000000002</v>
       </c>
-      <c r="BB2" s="3">
+      <c r="BE2" s="3">
         <v>0.40799999999999997</v>
       </c>
-      <c r="BD2" s="3" t="s">
+      <c r="BG2" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="BE2" s="3">
+      <c r="BH2" s="3">
         <v>1488.1</v>
       </c>
-      <c r="BF2" s="3" t="s">
+      <c r="BI2" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="BG2" s="3" t="s">
+      <c r="BJ2" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="BH2" s="3" t="s">
+      <c r="BK2" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="BI2" s="3" t="s">
+      <c r="BL2" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="BJ2" s="3" t="s">
+      <c r="BM2" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="BK2" s="3" t="s">
+      <c r="BN2" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="BL2" s="3">
+      <c r="BO2" s="3">
         <v>5</v>
       </c>
-      <c r="BM2" s="3">
+      <c r="BP2" s="3">
         <v>8.1967213114753995E-2</v>
       </c>
-      <c r="BN2" s="3" t="s">
+      <c r="BQ2" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>87</v>
       </c>
@@ -1937,63 +1937,60 @@
       <c r="F3" t="s">
         <v>91</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>0.99979200000000001</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>4809</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>4810</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>3</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>72</v>
       </c>
-      <c r="M3" s="2">
+      <c r="N3" s="2">
         <v>44927</v>
       </c>
-      <c r="S3" s="1">
+      <c r="T3" s="1">
         <v>6.9813899999999999E-6</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>1756</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>3053</v>
       </c>
-      <c r="Z3">
-        <v>0</v>
-      </c>
       <c r="AA3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB3">
+        <v>1</v>
+      </c>
+      <c r="AC3">
         <v>1.1506221349050401</v>
       </c>
-      <c r="AC3">
-        <v>1</v>
-      </c>
       <c r="AD3">
+        <v>1</v>
+      </c>
+      <c r="AE3">
         <v>0.36520473913947199</v>
       </c>
-      <c r="AE3" s="1">
+      <c r="AF3" s="1">
         <v>7.4855385807619801E-79</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>4151</v>
       </c>
-      <c r="AG3">
-        <v>0</v>
-      </c>
       <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
         <v>2</v>
       </c>
-      <c r="AI3">
-        <v>1</v>
-      </c>
       <c r="AJ3">
         <v>1</v>
       </c>
@@ -2004,82 +2001,85 @@
         <v>1</v>
       </c>
       <c r="AM3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
         <v>814</v>
       </c>
-      <c r="AO3">
+      <c r="AP3">
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="AP3">
-        <v>0</v>
-      </c>
       <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="AR3">
+      <c r="AS3">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="AS3">
+      <c r="AU3">
         <v>446</v>
       </c>
-      <c r="AT3">
+      <c r="AV3">
         <v>814</v>
       </c>
-      <c r="AU3">
+      <c r="AW3">
         <v>0.35420000000000001</v>
       </c>
-      <c r="AV3">
-        <v>0</v>
-      </c>
-      <c r="AW3">
+      <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AY3">
         <v>0.54849999999999999</v>
       </c>
-      <c r="AX3">
-        <v>1</v>
-      </c>
-      <c r="AY3">
-        <v>1</v>
-      </c>
       <c r="AZ3">
+        <v>1</v>
+      </c>
+      <c r="BB3">
+        <v>1</v>
+      </c>
+      <c r="BC3">
         <v>47.072200000000002</v>
       </c>
-      <c r="BA3">
+      <c r="BD3">
         <v>0.50008200000000003</v>
       </c>
-      <c r="BB3">
+      <c r="BE3">
         <v>0.52500000000000002</v>
       </c>
-      <c r="BD3" t="s">
+      <c r="BG3" t="s">
         <v>92</v>
       </c>
-      <c r="BE3">
+      <c r="BH3">
         <v>56604.3</v>
       </c>
-      <c r="BG3" t="s">
+      <c r="BJ3" t="s">
         <v>93</v>
       </c>
-      <c r="BH3" t="s">
+      <c r="BK3" t="s">
         <v>94</v>
       </c>
-      <c r="BI3" t="s">
+      <c r="BL3" t="s">
         <v>95</v>
       </c>
-      <c r="BK3" t="s">
+      <c r="BN3" t="s">
         <v>96</v>
       </c>
-      <c r="BL3">
+      <c r="BO3">
         <v>9</v>
       </c>
-      <c r="BM3">
+      <c r="BP3">
         <v>0.14754098360655701</v>
       </c>
-      <c r="BN3" t="s">
+      <c r="BQ3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:66" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:69" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>87</v>
       </c>
@@ -2101,89 +2101,86 @@
       <c r="G4" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="H4" s="3">
+      <c r="I4" s="3">
         <v>0.463084</v>
       </c>
-      <c r="I4" s="3">
+      <c r="J4" s="3">
         <v>922</v>
       </c>
-      <c r="J4" s="3">
+      <c r="K4" s="3">
         <v>1991</v>
       </c>
-      <c r="K4" s="3">
-        <v>1</v>
-      </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" s="3">
+        <v>1</v>
+      </c>
+      <c r="M4" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="O4" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="O4" s="3">
+      <c r="P4" s="3">
         <v>5192</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="Q4" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="Q4" s="3">
+      <c r="R4" s="3">
         <v>156444</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="S4" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="S4" s="4">
+      <c r="T4" s="4">
         <v>1.3991100000000001E-5</v>
       </c>
-      <c r="T4" s="3">
+      <c r="U4" s="3">
         <v>6.1710000000000003</v>
       </c>
-      <c r="U4" s="3">
+      <c r="V4" s="3">
         <v>24.4</v>
       </c>
-      <c r="V4" s="3" t="s">
+      <c r="W4" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="W4" s="3" t="s">
+      <c r="X4" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="X4" s="3">
+      <c r="Y4" s="3">
         <v>460</v>
       </c>
-      <c r="Y4" s="3">
+      <c r="Z4" s="3">
         <v>462</v>
       </c>
-      <c r="Z4" s="3">
+      <c r="AA4" s="3">
         <v>595</v>
       </c>
-      <c r="AA4" s="3">
+      <c r="AB4" s="3">
         <v>469</v>
       </c>
-      <c r="AB4" s="3">
+      <c r="AC4" s="3">
         <v>0.78518416513256095</v>
       </c>
-      <c r="AC4" s="3">
+      <c r="AD4" s="3">
         <v>7.8138490841709995E-3</v>
       </c>
-      <c r="AD4" s="3">
+      <c r="AE4" s="3">
         <v>0.49891774891774798</v>
       </c>
-      <c r="AE4" s="3">
+      <c r="AF4" s="3">
         <v>0.97375862593993501</v>
       </c>
-      <c r="AF4" s="3">
+      <c r="AG4" s="3">
         <v>1935</v>
       </c>
-      <c r="AG4" s="3">
-        <v>1</v>
-      </c>
       <c r="AH4" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI4" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="3">
         <v>1</v>
@@ -2195,85 +2192,88 @@
         <v>1</v>
       </c>
       <c r="AM4" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN4" s="3">
         <v>440</v>
       </c>
-      <c r="AN4" s="3">
+      <c r="AO4" s="3">
         <v>449</v>
       </c>
-      <c r="AO4" s="3">
+      <c r="AP4" s="3">
         <v>0.49490000000000001</v>
       </c>
-      <c r="AP4" s="3">
+      <c r="AQ4" s="3">
         <v>0.78869999999999996</v>
       </c>
-      <c r="AQ4" s="3">
+      <c r="AR4" s="3">
         <v>0.98</v>
       </c>
-      <c r="AR4" s="3">
-        <v>1</v>
-      </c>
       <c r="AS4" s="3">
+        <v>1</v>
+      </c>
+      <c r="AU4" s="3">
         <v>440</v>
       </c>
-      <c r="AT4" s="3">
+      <c r="AV4" s="3">
         <v>449</v>
       </c>
-      <c r="AU4" s="3">
+      <c r="AW4" s="3">
         <v>0.49490000000000001</v>
       </c>
-      <c r="AV4" s="3">
+      <c r="AX4" s="3">
         <v>0.78869999999999996</v>
       </c>
-      <c r="AW4" s="3">
+      <c r="AY4" s="3">
         <v>0.98</v>
       </c>
-      <c r="AX4" s="3">
-        <v>1</v>
-      </c>
-      <c r="AY4" s="3">
-        <v>1</v>
-      </c>
       <c r="AZ4" s="3">
+        <v>1</v>
+      </c>
+      <c r="BB4" s="3">
+        <v>1</v>
+      </c>
+      <c r="BC4" s="3">
         <v>25.2668</v>
       </c>
-      <c r="BA4" s="3">
+      <c r="BD4" s="3">
         <v>0.53229800000000005</v>
       </c>
-      <c r="BB4" s="3">
+      <c r="BE4" s="3">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="BD4" s="3" t="s">
+      <c r="BG4" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="BE4" s="3">
+      <c r="BH4" s="3">
         <v>12576.5</v>
       </c>
-      <c r="BF4" s="3" t="s">
+      <c r="BI4" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="BG4" s="3" t="s">
+      <c r="BJ4" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="BH4" s="3" t="s">
+      <c r="BK4" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="BI4" s="3" t="s">
+      <c r="BL4" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="BK4" s="3" t="s">
+      <c r="BN4" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="BL4" s="3">
+      <c r="BO4" s="3">
         <v>3</v>
       </c>
-      <c r="BM4" s="3">
+      <c r="BP4" s="3">
         <v>4.9180327868852403E-2</v>
       </c>
-      <c r="BN4" s="3" t="s">
+      <c r="BQ4" s="3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="5" spans="1:66" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:69" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>107</v>
       </c>
@@ -2295,98 +2295,98 @@
       <c r="G5" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="H5" s="3">
+      <c r="I5" s="3">
         <v>0.34200700000000001</v>
       </c>
-      <c r="I5" s="3">
+      <c r="J5" s="3">
         <v>1196</v>
       </c>
-      <c r="J5" s="3">
+      <c r="K5" s="3">
         <v>3497</v>
       </c>
-      <c r="K5" s="3">
-        <v>0</v>
-      </c>
-      <c r="L5" s="3" t="s">
+      <c r="L5" s="3">
+        <v>0</v>
+      </c>
+      <c r="M5" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="N5" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="O5" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="O5" s="3">
-        <v>1</v>
-      </c>
-      <c r="P5" s="3" t="s">
+      <c r="P5" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="X5" s="3">
+      <c r="Y5" s="3">
         <v>854</v>
       </c>
-      <c r="Y5" s="3">
+      <c r="Z5" s="3">
         <v>342</v>
       </c>
-      <c r="Z5" s="3">
+      <c r="AA5" s="3">
         <v>1138</v>
       </c>
-      <c r="AA5" s="3">
+      <c r="AB5" s="3">
         <v>1163</v>
       </c>
-      <c r="AB5" s="3">
+      <c r="AC5" s="3">
         <v>2.5474240869055498</v>
       </c>
-      <c r="AC5" s="4">
+      <c r="AD5" s="4">
         <v>5.6916566974321096E-6</v>
       </c>
-      <c r="AD5" s="3">
+      <c r="AE5" s="3">
         <v>0.71368948247078401</v>
       </c>
-      <c r="AE5" s="4">
+      <c r="AF5" s="4">
         <v>7.0699464785092604E-51</v>
       </c>
-      <c r="AY5" s="3">
+      <c r="BB5" s="3">
         <v>10</v>
       </c>
-      <c r="AZ5" s="3">
+      <c r="BC5" s="3">
         <v>13.8208</v>
       </c>
-      <c r="BA5" s="3">
+      <c r="BD5" s="3">
         <v>0.65356899999999996</v>
       </c>
-      <c r="BB5" s="3">
-        <v>0</v>
-      </c>
-      <c r="BD5" s="3" t="s">
+      <c r="BE5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BG5" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="BE5" s="3">
+      <c r="BH5" s="3">
         <v>12082.8</v>
       </c>
-      <c r="BF5" s="3" t="s">
+      <c r="BI5" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="BG5" s="3" t="s">
+      <c r="BJ5" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="BH5" s="3" t="s">
+      <c r="BK5" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="BI5" s="3" t="s">
+      <c r="BL5" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="BL5" s="3">
+      <c r="BO5" s="3">
         <v>3</v>
       </c>
-      <c r="BM5" s="3">
+      <c r="BP5" s="3">
         <v>4.9180327868852403E-2</v>
       </c>
-      <c r="BN5" s="3" t="s">
+      <c r="BQ5" s="3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>119</v>
       </c>
@@ -2408,107 +2408,107 @@
       <c r="G6" t="s">
         <v>124</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>2.40469E-2</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>123</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>5115</v>
       </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6" t="s">
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6" t="s">
         <v>72</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>125</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>126</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>11</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>127</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>570415</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>128</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>44</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>79</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>2150</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>2842</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>0.74346234309623405</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>0.11702260082624499</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>0.36</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>2.2264883473201999E-3</v>
       </c>
-      <c r="AY6">
+      <c r="BB6">
         <v>3</v>
       </c>
-      <c r="AZ6">
+      <c r="BC6">
         <v>1.0963400000000001</v>
       </c>
-      <c r="BA6">
+      <c r="BD6">
         <v>0.57420000000000004</v>
       </c>
-      <c r="BB6">
+      <c r="BE6">
         <v>0.107</v>
       </c>
-      <c r="BD6" t="s">
+      <c r="BG6" t="s">
         <v>92</v>
       </c>
-      <c r="BE6">
+      <c r="BH6">
         <v>1401.94</v>
       </c>
-      <c r="BF6" t="s">
+      <c r="BI6" t="s">
         <v>80</v>
       </c>
-      <c r="BG6" t="s">
+      <c r="BJ6" t="s">
         <v>129</v>
       </c>
-      <c r="BH6" t="s">
+      <c r="BK6" t="s">
         <v>130</v>
       </c>
-      <c r="BI6" t="s">
+      <c r="BL6" t="s">
         <v>131</v>
       </c>
-      <c r="BK6" t="s">
+      <c r="BN6" t="s">
         <v>132</v>
       </c>
-      <c r="BL6">
+      <c r="BO6">
         <v>42</v>
       </c>
-      <c r="BM6">
+      <c r="BP6">
         <v>0.68852459016393397</v>
       </c>
-      <c r="BN6" t="s">
+      <c r="BQ6" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="7" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>134</v>
       </c>
@@ -2530,86 +2530,83 @@
       <c r="G7" t="s">
         <v>138</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>7.2833200000000002E-3</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>30</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>4119</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>3</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>72</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>125</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>139</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>26</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>140</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>162464</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>141</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>9.6020000000000003</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>27.9</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>142</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>143</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>12</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>18</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>2026</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>2060</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>0.695687170565783</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>0.36051591894350898</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>0.40625</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>0.37708558747544801</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>4085</v>
       </c>
-      <c r="AG7">
-        <v>0</v>
-      </c>
       <c r="AH7">
         <v>0</v>
       </c>
       <c r="AI7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ7">
         <v>1</v>
@@ -2621,85 +2618,88 @@
         <v>1</v>
       </c>
       <c r="AM7">
+        <v>1</v>
+      </c>
+      <c r="AN7">
         <v>12</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>18</v>
       </c>
-      <c r="AO7">
+      <c r="AP7">
         <v>0.40620000000000001</v>
       </c>
-      <c r="AP7">
+      <c r="AQ7">
         <v>0.37709999999999999</v>
       </c>
-      <c r="AQ7">
+      <c r="AR7">
         <v>0.68420000000000003</v>
       </c>
-      <c r="AR7">
-        <v>1</v>
-      </c>
       <c r="AS7">
+        <v>1</v>
+      </c>
+      <c r="AU7">
         <v>12</v>
       </c>
-      <c r="AT7">
+      <c r="AV7">
         <v>18</v>
       </c>
-      <c r="AU7">
+      <c r="AW7">
         <v>0.40620000000000001</v>
       </c>
-      <c r="AV7">
+      <c r="AX7">
         <v>0.37709999999999999</v>
       </c>
-      <c r="AW7">
+      <c r="AY7">
         <v>0.68420000000000003</v>
       </c>
-      <c r="AX7">
-        <v>1</v>
-      </c>
-      <c r="AY7">
-        <v>1</v>
-      </c>
       <c r="AZ7">
+        <v>1</v>
+      </c>
+      <c r="BB7">
+        <v>1</v>
+      </c>
+      <c r="BC7">
         <v>4.2723299999999999E-2</v>
       </c>
-      <c r="BA7">
+      <c r="BD7">
         <v>0.59526199999999996</v>
       </c>
-      <c r="BB7">
+      <c r="BE7">
         <v>0.35899999999999999</v>
       </c>
-      <c r="BD7" t="s">
+      <c r="BG7" t="s">
         <v>79</v>
       </c>
-      <c r="BE7">
+      <c r="BH7">
         <v>43.994399999999999</v>
       </c>
-      <c r="BF7" t="s">
+      <c r="BI7" t="s">
         <v>80</v>
       </c>
-      <c r="BG7" t="s">
+      <c r="BJ7" t="s">
         <v>81</v>
       </c>
-      <c r="BH7" t="s">
+      <c r="BK7" t="s">
         <v>144</v>
       </c>
-      <c r="BI7" t="s">
+      <c r="BL7" t="s">
         <v>145</v>
       </c>
-      <c r="BK7" t="s">
+      <c r="BN7" t="s">
         <v>146</v>
       </c>
-      <c r="BL7">
-        <v>1</v>
-      </c>
-      <c r="BM7">
+      <c r="BO7">
+        <v>1</v>
+      </c>
+      <c r="BP7">
         <v>1.63934426229508E-2</v>
       </c>
-      <c r="BN7" t="s">
+      <c r="BQ7" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="8" spans="1:66" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:69" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>134</v>
       </c>
@@ -2721,86 +2721,83 @@
       <c r="G8" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>0.23883499999999999</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>984</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4120</v>
       </c>
-      <c r="K8" s="3">
-        <v>1</v>
-      </c>
-      <c r="L8" s="3" t="s">
+      <c r="L8" s="3">
+        <v>1</v>
+      </c>
+      <c r="M8" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="M8" s="3" t="s">
+      <c r="N8" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="N8" s="3" t="s">
+      <c r="O8" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>9</v>
       </c>
-      <c r="P8" s="3" t="s">
+      <c r="Q8" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>265307</v>
       </c>
-      <c r="R8" s="3" t="s">
+      <c r="S8" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>7.5679999999999996</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>26.6</v>
       </c>
-      <c r="V8" s="3" t="s">
+      <c r="W8" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="W8" s="3" t="s">
+      <c r="X8" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>494</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>490</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1543</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>1593</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>1.0407938752466599</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>0.60895463481743095</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>0.50202839756592199</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>0.92389271048191901</v>
       </c>
-      <c r="AF8" s="3">
+      <c r="AG8" s="3">
         <v>4099</v>
       </c>
-      <c r="AG8" s="3">
-        <v>0</v>
-      </c>
       <c r="AH8" s="3">
         <v>0</v>
       </c>
       <c r="AI8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="3">
         <v>1</v>
@@ -2812,85 +2809,88 @@
         <v>1</v>
       </c>
       <c r="AM8" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN8" s="3">
         <v>489</v>
       </c>
-      <c r="AN8" s="3">
+      <c r="AO8" s="3">
         <v>488</v>
       </c>
-      <c r="AO8" s="3">
+      <c r="AP8" s="3">
         <v>0.50049999999999994</v>
       </c>
-      <c r="AP8" s="3">
-        <v>1</v>
-      </c>
       <c r="AQ8" s="3">
+        <v>1</v>
+      </c>
+      <c r="AR8" s="3">
         <v>1.002</v>
       </c>
-      <c r="AR8" s="3">
-        <v>1</v>
-      </c>
       <c r="AS8" s="3">
+        <v>1</v>
+      </c>
+      <c r="AU8" s="3">
         <v>489</v>
       </c>
-      <c r="AT8" s="3">
+      <c r="AV8" s="3">
         <v>488</v>
       </c>
-      <c r="AU8" s="3">
+      <c r="AW8" s="3">
         <v>0.50049999999999994</v>
       </c>
-      <c r="AV8" s="3">
-        <v>1</v>
-      </c>
-      <c r="AW8" s="3">
+      <c r="AX8" s="3">
+        <v>1</v>
+      </c>
+      <c r="AY8" s="3">
         <v>1.002</v>
       </c>
-      <c r="AX8" s="3">
-        <v>1</v>
-      </c>
-      <c r="AY8" s="3">
-        <v>1</v>
-      </c>
       <c r="AZ8" s="3">
+        <v>1</v>
+      </c>
+      <c r="BB8" s="3">
+        <v>1</v>
+      </c>
+      <c r="BC8" s="3">
         <v>8.0871999999999993</v>
       </c>
-      <c r="BA8" s="3">
+      <c r="BD8" s="3">
         <v>0.50761500000000004</v>
       </c>
-      <c r="BB8" s="3">
+      <c r="BE8" s="3">
         <v>0.56799999999999995</v>
       </c>
-      <c r="BD8" s="3" t="s">
+      <c r="BG8" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="BE8" s="3">
+      <c r="BH8" s="3">
         <v>8329.82</v>
       </c>
-      <c r="BF8" s="3" t="s">
+      <c r="BI8" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="BG8" s="3" t="s">
+      <c r="BJ8" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="BH8" s="3" t="s">
+      <c r="BK8" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="BI8" s="3" t="s">
+      <c r="BL8" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="BK8" s="3" t="s">
+      <c r="BN8" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="BL8" s="3">
+      <c r="BO8" s="3">
         <v>3</v>
       </c>
-      <c r="BM8" s="3">
+      <c r="BP8" s="3">
         <v>4.9180327868852403E-2</v>
       </c>
-      <c r="BN8" s="3" t="s">
+      <c r="BQ8" s="3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>154</v>
       </c>
@@ -2909,63 +2909,60 @@
       <c r="F9" t="s">
         <v>157</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>6.7704799999999997E-3</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>20</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>2954</v>
       </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9" t="s">
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9" t="s">
         <v>158</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>159</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>5.1230000000000002</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>14</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>6</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>1688</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>1246</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>1.5820857650342499</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>0.36443281559450902</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>0.68181818181818099</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>0.13380050659179599</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>2887</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>3</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>2</v>
       </c>
-      <c r="AI9">
-        <v>1</v>
-      </c>
       <c r="AJ9">
         <v>1</v>
       </c>
@@ -2976,76 +2973,79 @@
         <v>1</v>
       </c>
       <c r="AM9">
+        <v>1</v>
+      </c>
+      <c r="AN9">
         <v>26</v>
       </c>
-      <c r="AN9">
-        <v>0</v>
-      </c>
       <c r="AO9">
+        <v>0</v>
+      </c>
+      <c r="AP9">
         <v>0.96430000000000005</v>
       </c>
-      <c r="AP9">
-        <v>0</v>
-      </c>
       <c r="AQ9">
+        <v>0</v>
+      </c>
+      <c r="AR9">
         <v>27</v>
       </c>
-      <c r="AR9">
+      <c r="AS9">
         <v>7.1400000000000005E-2</v>
       </c>
-      <c r="AS9">
+      <c r="AU9">
         <v>26</v>
       </c>
-      <c r="AT9">
+      <c r="AV9">
         <v>6</v>
       </c>
-      <c r="AU9">
+      <c r="AW9">
         <v>0.79410000000000003</v>
       </c>
-      <c r="AV9">
+      <c r="AX9">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="AW9">
+      <c r="AY9">
         <v>3.8571</v>
       </c>
-      <c r="AX9">
+      <c r="AZ9">
         <v>0.37430000000000002</v>
       </c>
-      <c r="AY9">
-        <v>1</v>
-      </c>
-      <c r="AZ9">
+      <c r="BB9">
+        <v>1</v>
+      </c>
+      <c r="BC9">
         <v>9.7373500000000002E-2</v>
       </c>
-      <c r="BA9">
+      <c r="BD9">
         <v>0.63173000000000001</v>
       </c>
-      <c r="BB9">
+      <c r="BE9">
         <v>0.26600000000000001</v>
       </c>
-      <c r="BD9" t="s">
+      <c r="BG9" t="s">
         <v>160</v>
       </c>
-      <c r="BE9">
+      <c r="BH9">
         <v>71.910399999999996</v>
       </c>
-      <c r="BG9" t="s">
+      <c r="BJ9" t="s">
         <v>93</v>
       </c>
-      <c r="BH9" t="s">
+      <c r="BK9" t="s">
         <v>161</v>
       </c>
-      <c r="BI9" t="s">
+      <c r="BL9" t="s">
         <v>162</v>
       </c>
-      <c r="BL9">
-        <v>0</v>
-      </c>
-      <c r="BM9">
+      <c r="BO9">
+        <v>0</v>
+      </c>
+      <c r="BP9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>154</v>
       </c>
@@ -3067,74 +3067,71 @@
       <c r="G10" t="s">
         <v>164</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>0.49951200000000001</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>3580</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>7167</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>2</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>72</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>73</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>527922</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>128</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>2.661</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>16.68</v>
       </c>
-      <c r="V10" t="s">
+      <c r="W10" t="s">
         <v>77</v>
       </c>
-      <c r="W10" t="s">
+      <c r="X10" t="s">
         <v>143</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>1728</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>1852</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>1763</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>1824</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>0.96534791286545196</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>0.46382475366354098</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>0.48269123394751501</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>3.98501841057987E-2</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>6803</v>
       </c>
-      <c r="AG10">
-        <v>0</v>
-      </c>
       <c r="AH10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI10">
         <v>1</v>
@@ -3149,85 +3146,88 @@
         <v>1</v>
       </c>
       <c r="AM10">
+        <v>1</v>
+      </c>
+      <c r="AN10">
         <v>1685</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>1801</v>
       </c>
-      <c r="AO10">
+      <c r="AP10">
         <v>0.4834</v>
       </c>
-      <c r="AP10">
+      <c r="AQ10">
         <v>5.1499999999999997E-2</v>
       </c>
-      <c r="AQ10">
+      <c r="AR10">
         <v>0.93559999999999999</v>
       </c>
-      <c r="AR10">
-        <v>1</v>
-      </c>
       <c r="AS10">
+        <v>1</v>
+      </c>
+      <c r="AU10">
         <v>1685</v>
       </c>
-      <c r="AT10">
+      <c r="AV10">
         <v>1801</v>
       </c>
-      <c r="AU10">
+      <c r="AW10">
         <v>0.4834</v>
       </c>
-      <c r="AV10">
+      <c r="AX10">
         <v>5.1499999999999997E-2</v>
       </c>
-      <c r="AW10">
+      <c r="AY10">
         <v>0.93559999999999999</v>
       </c>
-      <c r="AX10">
-        <v>1</v>
-      </c>
-      <c r="AY10">
-        <v>1</v>
-      </c>
       <c r="AZ10">
+        <v>1</v>
+      </c>
+      <c r="BB10">
+        <v>1</v>
+      </c>
+      <c r="BC10">
         <v>22.057099999999998</v>
       </c>
-      <c r="BA10">
+      <c r="BD10">
         <v>0.50441599999999998</v>
       </c>
-      <c r="BB10">
+      <c r="BE10">
         <v>0.46600000000000003</v>
       </c>
-      <c r="BD10" t="s">
+      <c r="BG10" t="s">
         <v>79</v>
       </c>
-      <c r="BE10">
+      <c r="BH10">
         <v>39520.9</v>
       </c>
-      <c r="BF10" t="s">
+      <c r="BI10" t="s">
         <v>80</v>
       </c>
-      <c r="BG10" t="s">
+      <c r="BJ10" t="s">
         <v>81</v>
       </c>
-      <c r="BH10" t="s">
+      <c r="BK10" t="s">
         <v>161</v>
       </c>
-      <c r="BI10" t="s">
+      <c r="BL10" t="s">
         <v>165</v>
       </c>
-      <c r="BK10" t="s">
+      <c r="BN10" t="s">
         <v>166</v>
       </c>
-      <c r="BL10">
+      <c r="BO10">
         <v>3</v>
       </c>
-      <c r="BM10">
+      <c r="BP10">
         <v>4.9180327868852403E-2</v>
       </c>
-      <c r="BN10" t="s">
+      <c r="BQ10" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="11" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>167</v>
       </c>
@@ -3246,71 +3246,68 @@
       <c r="F11" t="s">
         <v>169</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>0.50158100000000005</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>1586</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>3162</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>3</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>72</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>73</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>321895</v>
       </c>
-      <c r="R11" t="s">
+      <c r="S11" t="s">
         <v>170</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>1.05789E-2</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>14.46</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>624</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>962</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>606</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>970</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>1.0382077561710801</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>0.609767143846347</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>0.393576826196473</v>
       </c>
-      <c r="AE11" s="1">
+      <c r="AF11" s="1">
         <v>2.09166052501522E-17</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>3103</v>
       </c>
-      <c r="AG11">
-        <v>0</v>
-      </c>
       <c r="AH11">
         <v>0</v>
       </c>
       <c r="AI11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ11">
         <v>1</v>
@@ -3322,82 +3319,85 @@
         <v>1</v>
       </c>
       <c r="AM11">
+        <v>1</v>
+      </c>
+      <c r="AN11">
         <v>621</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>961</v>
       </c>
-      <c r="AO11">
+      <c r="AP11">
         <v>0.39269999999999999</v>
       </c>
-      <c r="AP11">
-        <v>0</v>
-      </c>
       <c r="AQ11">
+        <v>0</v>
+      </c>
+      <c r="AR11">
         <v>0.64659999999999995</v>
       </c>
-      <c r="AR11">
-        <v>1</v>
-      </c>
       <c r="AS11">
+        <v>1</v>
+      </c>
+      <c r="AU11">
         <v>621</v>
       </c>
-      <c r="AT11">
+      <c r="AV11">
         <v>961</v>
       </c>
-      <c r="AU11">
+      <c r="AW11">
         <v>0.39269999999999999</v>
       </c>
-      <c r="AV11">
-        <v>0</v>
-      </c>
-      <c r="AW11">
+      <c r="AX11">
+        <v>0</v>
+      </c>
+      <c r="AY11">
         <v>0.64659999999999995</v>
       </c>
-      <c r="AX11">
-        <v>1</v>
-      </c>
-      <c r="AY11">
-        <v>1</v>
-      </c>
       <c r="AZ11">
+        <v>1</v>
+      </c>
+      <c r="BB11">
+        <v>1</v>
+      </c>
+      <c r="BC11">
         <v>22.186499999999999</v>
       </c>
-      <c r="BA11">
+      <c r="BD11">
         <v>0.50466900000000003</v>
       </c>
-      <c r="BB11">
+      <c r="BE11">
         <v>0.61199999999999999</v>
       </c>
-      <c r="BD11" t="s">
+      <c r="BG11" t="s">
         <v>79</v>
       </c>
-      <c r="BE11">
+      <c r="BH11">
         <v>17538.5</v>
       </c>
-      <c r="BG11" t="s">
+      <c r="BJ11" t="s">
         <v>93</v>
       </c>
-      <c r="BH11" t="s">
+      <c r="BK11" t="s">
         <v>171</v>
       </c>
-      <c r="BI11" t="s">
+      <c r="BL11" t="s">
         <v>172</v>
       </c>
-      <c r="BK11" t="s">
+      <c r="BN11" t="s">
         <v>173</v>
       </c>
-      <c r="BL11">
+      <c r="BO11">
         <v>4</v>
       </c>
-      <c r="BM11">
+      <c r="BP11">
         <v>6.5573770491803199E-2</v>
       </c>
-      <c r="BN11" t="s">
+      <c r="BQ11" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="12" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>167</v>
       </c>
@@ -3419,63 +3419,60 @@
       <c r="G12" t="s">
         <v>177</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>5.4054100000000002E-3</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>24</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>4440</v>
       </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12" t="s">
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12" t="s">
         <v>158</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>159</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>9.3239999999999998</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>22.9</v>
       </c>
-      <c r="V12" t="s">
+      <c r="W12" t="s">
         <v>142</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>9</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>15</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>1951</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>2465</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>0.78957479508196704</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>0.54428191228387501</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>0.38461538461538403</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <v>0.32693958282470698</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <v>4266</v>
       </c>
-      <c r="AG12">
-        <v>1</v>
-      </c>
       <c r="AH12">
         <v>1</v>
       </c>
@@ -3492,79 +3489,82 @@
         <v>1</v>
       </c>
       <c r="AM12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN12">
+        <v>0</v>
+      </c>
+      <c r="AO12">
         <v>28</v>
       </c>
-      <c r="AO12">
+      <c r="AP12">
         <v>3.3300000000000003E-2</v>
       </c>
-      <c r="AP12">
-        <v>0</v>
-      </c>
       <c r="AQ12">
+        <v>0</v>
+      </c>
+      <c r="AR12">
         <v>3.4500000000000003E-2</v>
       </c>
-      <c r="AR12">
+      <c r="AS12">
         <v>6.6699999999999995E-2</v>
       </c>
-      <c r="AS12">
+      <c r="AU12">
         <v>120</v>
       </c>
-      <c r="AT12">
+      <c r="AV12">
         <v>28</v>
       </c>
-      <c r="AU12">
+      <c r="AW12">
         <v>0.80669999999999997</v>
       </c>
-      <c r="AV12">
-        <v>0</v>
-      </c>
-      <c r="AW12">
+      <c r="AX12">
+        <v>0</v>
+      </c>
+      <c r="AY12">
         <v>4.1723999999999997</v>
       </c>
-      <c r="AX12">
+      <c r="AZ12">
         <v>0.3503</v>
       </c>
-      <c r="AY12">
-        <v>1</v>
-      </c>
-      <c r="AZ12">
+      <c r="BB12">
+        <v>1</v>
+      </c>
+      <c r="BC12">
         <v>0.10514999999999999</v>
       </c>
-      <c r="BA12">
+      <c r="BD12">
         <v>0.56838699999999998</v>
       </c>
-      <c r="BB12">
+      <c r="BE12">
         <v>0.51700000000000002</v>
       </c>
-      <c r="BD12" t="s">
+      <c r="BG12" t="s">
         <v>160</v>
       </c>
-      <c r="BE12">
+      <c r="BH12">
         <v>116.71599999999999</v>
       </c>
-      <c r="BF12" t="s">
+      <c r="BI12" t="s">
         <v>80</v>
       </c>
-      <c r="BG12" t="s">
+      <c r="BJ12" t="s">
         <v>116</v>
       </c>
-      <c r="BH12" t="s">
+      <c r="BK12" t="s">
         <v>178</v>
       </c>
-      <c r="BI12" t="s">
+      <c r="BL12" t="s">
         <v>179</v>
       </c>
-      <c r="BL12">
-        <v>0</v>
-      </c>
-      <c r="BM12">
+      <c r="BO12">
+        <v>0</v>
+      </c>
+      <c r="BP12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>167</v>
       </c>
@@ -3586,158 +3586,158 @@
       <c r="G13" t="s">
         <v>182</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>0.49473699999999998</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>752</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>1520</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>3</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>72</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>73</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>2.65111E-4</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>13.88</v>
       </c>
-      <c r="W13" t="s">
+      <c r="X13" t="s">
         <v>143</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>372</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>380</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>366</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>402</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>1.0750355796805999</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>0.50468595451834597</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>0.494694960212201</v>
       </c>
-      <c r="AE13">
+      <c r="AF13">
         <v>0.79880144325859803</v>
       </c>
-      <c r="AF13">
+      <c r="AG13">
         <v>1466</v>
       </c>
-      <c r="AG13">
-        <v>0</v>
-      </c>
       <c r="AH13">
         <v>0</v>
       </c>
       <c r="AI13">
+        <v>0</v>
+      </c>
+      <c r="AJ13">
         <v>363</v>
       </c>
-      <c r="AJ13">
-        <v>0</v>
-      </c>
       <c r="AK13">
+        <v>0</v>
+      </c>
+      <c r="AL13">
         <v>363</v>
       </c>
-      <c r="AL13">
+      <c r="AM13">
         <v>353</v>
       </c>
-      <c r="AM13">
+      <c r="AN13">
         <v>370</v>
       </c>
-      <c r="AN13">
+      <c r="AO13">
         <v>380</v>
       </c>
-      <c r="AO13">
+      <c r="AP13">
         <v>0.49340000000000001</v>
       </c>
-      <c r="AP13">
+      <c r="AQ13">
         <v>0.74280000000000002</v>
       </c>
-      <c r="AQ13">
+      <c r="AR13">
         <v>2.7000000000000001E-3</v>
       </c>
-      <c r="AR13">
-        <v>0</v>
-      </c>
       <c r="AS13">
+        <v>0</v>
+      </c>
+      <c r="AU13">
         <v>370</v>
       </c>
-      <c r="AT13">
+      <c r="AV13">
         <v>380</v>
       </c>
-      <c r="AU13">
+      <c r="AW13">
         <v>0.49340000000000001</v>
       </c>
-      <c r="AV13">
+      <c r="AX13">
         <v>0.74280000000000002</v>
       </c>
-      <c r="AW13">
+      <c r="AY13">
         <v>0.94699999999999995</v>
       </c>
-      <c r="AX13">
+      <c r="AZ13">
         <v>0.63819999999999999</v>
       </c>
-      <c r="AY13">
-        <v>1</v>
-      </c>
-      <c r="AZ13">
+      <c r="BB13">
+        <v>1</v>
+      </c>
+      <c r="BC13">
         <v>24.179500000000001</v>
       </c>
-      <c r="BA13">
+      <c r="BD13">
         <v>0.50915699999999997</v>
       </c>
-      <c r="BB13">
+      <c r="BE13">
         <v>0.48599999999999999</v>
       </c>
-      <c r="BD13" t="s">
+      <c r="BG13" t="s">
         <v>79</v>
       </c>
-      <c r="BE13">
+      <c r="BH13">
         <v>9188.2099999999991</v>
       </c>
-      <c r="BF13" t="s">
+      <c r="BI13" t="s">
         <v>80</v>
       </c>
-      <c r="BG13" t="s">
+      <c r="BJ13" t="s">
         <v>183</v>
       </c>
-      <c r="BH13" t="s">
+      <c r="BK13" t="s">
         <v>184</v>
       </c>
-      <c r="BI13" t="s">
+      <c r="BL13" t="s">
         <v>185</v>
       </c>
-      <c r="BK13" t="s">
+      <c r="BN13" t="s">
         <v>186</v>
       </c>
-      <c r="BL13">
+      <c r="BO13">
         <v>3</v>
       </c>
-      <c r="BM13">
+      <c r="BP13">
         <v>4.9180327868852403E-2</v>
       </c>
-      <c r="BN13" t="s">
+      <c r="BQ13" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="14" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>187</v>
       </c>
@@ -3756,66 +3756,63 @@
       <c r="F14" t="s">
         <v>189</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>0.161079</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>442</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>2744</v>
       </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14" t="s">
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14" t="s">
         <v>158</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>159</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>6.048</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>34</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>125</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>317</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>1336</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>966</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>0.28657512595080498</v>
       </c>
-      <c r="AC14" s="1">
+      <c r="AD14" s="1">
         <v>3.4245875770066898E-6</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>0.28378378378378299</v>
       </c>
-      <c r="AE14" s="1">
+      <c r="AF14" s="1">
         <v>3.1795818967587998E-20</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <v>2286</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>10</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>4</v>
       </c>
-      <c r="AI14">
-        <v>1</v>
-      </c>
       <c r="AJ14">
         <v>1</v>
       </c>
@@ -3826,17 +3823,17 @@
         <v>1</v>
       </c>
       <c r="AM14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN14">
         <v>0</v>
       </c>
       <c r="AO14">
+        <v>0</v>
+      </c>
+      <c r="AP14">
         <v>0.5</v>
       </c>
-      <c r="AP14">
-        <v>1</v>
-      </c>
       <c r="AQ14">
         <v>1</v>
       </c>
@@ -3844,61 +3841,64 @@
         <v>1</v>
       </c>
       <c r="AS14">
+        <v>1</v>
+      </c>
+      <c r="AU14">
         <v>2</v>
       </c>
-      <c r="AT14">
+      <c r="AV14">
         <v>207</v>
       </c>
-      <c r="AU14">
+      <c r="AW14">
         <v>1.4200000000000001E-2</v>
       </c>
-      <c r="AV14">
-        <v>0</v>
-      </c>
-      <c r="AW14">
+      <c r="AX14">
+        <v>0</v>
+      </c>
+      <c r="AY14">
         <v>1.44E-2</v>
       </c>
-      <c r="AX14">
+      <c r="AZ14">
         <v>2.8299999999999999E-2</v>
       </c>
-      <c r="AY14">
-        <v>1</v>
-      </c>
-      <c r="AZ14">
+      <c r="BB14">
+        <v>1</v>
+      </c>
+      <c r="BC14">
         <v>2.9861599999999999</v>
       </c>
-      <c r="BA14">
+      <c r="BD14">
         <v>0.74277700000000002</v>
       </c>
-      <c r="BB14">
-        <v>0</v>
-      </c>
-      <c r="BD14" t="s">
+      <c r="BE14">
+        <v>0</v>
+      </c>
+      <c r="BG14" t="s">
         <v>79</v>
       </c>
-      <c r="BE14">
+      <c r="BH14">
         <v>2048.5100000000002</v>
       </c>
-      <c r="BG14" t="s">
+      <c r="BJ14" t="s">
         <v>190</v>
       </c>
-      <c r="BH14" t="s">
+      <c r="BK14" t="s">
         <v>191</v>
       </c>
-      <c r="BI14" t="s">
+      <c r="BL14" t="s">
         <v>192</v>
       </c>
-      <c r="BL14">
+      <c r="BO14">
         <v>7</v>
       </c>
-      <c r="BM14">
+      <c r="BP14">
         <v>0.114754098360655</v>
       </c>
-      <c r="BN14" t="s">
+      <c r="BQ14" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="15" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>194</v>
       </c>
@@ -3917,33 +3917,30 @@
       <c r="F15" t="s">
         <v>198</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>2.0304599999999999E-2</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>8</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>394</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>25</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
         <v>158</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>159</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>8.3539999999999992</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>8</v>
       </c>
-      <c r="Y15">
-        <v>0</v>
-      </c>
       <c r="Z15">
         <v>0</v>
       </c>
@@ -3951,55 +3948,58 @@
         <v>0</v>
       </c>
       <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
         <v>9</v>
       </c>
-      <c r="AC15">
-        <v>1</v>
-      </c>
       <c r="AD15">
+        <v>1</v>
+      </c>
+      <c r="AE15">
         <v>0.9</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>2.1484375E-2</v>
       </c>
-      <c r="AY15">
+      <c r="BB15">
         <v>22</v>
       </c>
-      <c r="AZ15">
+      <c r="BC15">
         <v>44.762500000000003</v>
       </c>
-      <c r="BA15">
+      <c r="BD15">
         <v>0.5</v>
       </c>
-      <c r="BB15">
-        <v>1</v>
-      </c>
-      <c r="BD15" t="s">
+      <c r="BE15">
+        <v>1</v>
+      </c>
+      <c r="BG15" t="s">
         <v>115</v>
       </c>
-      <c r="BE15">
+      <c r="BH15">
         <v>4409.1099999999997</v>
       </c>
-      <c r="BG15" t="s">
+      <c r="BJ15" t="s">
         <v>93</v>
       </c>
-      <c r="BH15" t="s">
+      <c r="BK15" t="s">
         <v>199</v>
       </c>
-      <c r="BI15" t="s">
+      <c r="BL15" t="s">
         <v>200</v>
       </c>
-      <c r="BL15">
+      <c r="BO15">
         <v>7</v>
       </c>
-      <c r="BM15">
+      <c r="BP15">
         <v>0.114754098360655</v>
       </c>
-      <c r="BN15" t="s">
+      <c r="BQ15" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="16" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>194</v>
       </c>
@@ -4018,33 +4018,30 @@
       <c r="F16" t="s">
         <v>203</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>1.52284E-2</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>6</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>394</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>25</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="s">
         <v>158</v>
       </c>
-      <c r="M16" t="s">
+      <c r="N16" t="s">
         <v>159</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>7.8010000000000002</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>6</v>
       </c>
-      <c r="Y16">
-        <v>0</v>
-      </c>
       <c r="Z16">
         <v>0</v>
       </c>
@@ -4052,55 +4049,58 @@
         <v>0</v>
       </c>
       <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
         <v>7</v>
       </c>
-      <c r="AC16">
-        <v>1</v>
-      </c>
       <c r="AD16">
+        <v>1</v>
+      </c>
+      <c r="AE16">
         <v>0.875</v>
       </c>
-      <c r="AE16">
+      <c r="AF16">
         <v>7.03125E-2</v>
       </c>
-      <c r="AY16">
-        <v>1</v>
-      </c>
-      <c r="AZ16">
+      <c r="BB16">
+        <v>1</v>
+      </c>
+      <c r="BC16">
         <v>44.762500000000003</v>
       </c>
-      <c r="BA16">
+      <c r="BD16">
         <v>0.5</v>
       </c>
-      <c r="BB16">
-        <v>1</v>
-      </c>
-      <c r="BD16" t="s">
+      <c r="BE16">
+        <v>1</v>
+      </c>
+      <c r="BG16" t="s">
         <v>79</v>
       </c>
-      <c r="BE16">
+      <c r="BH16">
         <v>4409.1099999999997</v>
       </c>
-      <c r="BG16" t="s">
+      <c r="BJ16" t="s">
         <v>93</v>
       </c>
-      <c r="BH16" t="s">
+      <c r="BK16" t="s">
         <v>199</v>
       </c>
-      <c r="BI16" t="s">
+      <c r="BL16" t="s">
         <v>204</v>
       </c>
-      <c r="BL16">
+      <c r="BO16">
         <v>2</v>
       </c>
-      <c r="BM16">
+      <c r="BP16">
         <v>3.2786885245901599E-2</v>
       </c>
-      <c r="BN16" t="s">
+      <c r="BQ16" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="17" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>194</v>
       </c>
@@ -4119,65 +4119,62 @@
       <c r="F17" t="s">
         <v>206</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>0.99507599999999996</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>2425</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>2437</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>3</v>
       </c>
-      <c r="L17" t="s">
+      <c r="M17" t="s">
         <v>72</v>
       </c>
-      <c r="M17" s="2">
+      <c r="N17" s="2">
         <v>44927</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>1.5484299999999999E-2</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>0.16700000000000001</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>1215</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>1210</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>8</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>4</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>0.55784934397651098</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>0.38654173308429801</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>0.50103007828594903</v>
       </c>
-      <c r="AE17">
+      <c r="AF17">
         <v>0.93528970150874402</v>
       </c>
-      <c r="AF17">
+      <c r="AG17">
         <v>2347</v>
       </c>
-      <c r="AG17">
-        <v>0</v>
-      </c>
       <c r="AH17">
         <v>0</v>
       </c>
       <c r="AI17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ17">
         <v>1</v>
@@ -4189,82 +4186,85 @@
         <v>1</v>
       </c>
       <c r="AM17">
+        <v>1</v>
+      </c>
+      <c r="AN17">
         <v>1180</v>
       </c>
-      <c r="AN17">
+      <c r="AO17">
         <v>1164</v>
       </c>
-      <c r="AO17">
+      <c r="AP17">
         <v>0.50339999999999996</v>
       </c>
-      <c r="AP17">
+      <c r="AQ17">
         <v>0.75680000000000003</v>
       </c>
-      <c r="AQ17">
+      <c r="AR17">
         <v>1.0137</v>
       </c>
-      <c r="AR17">
-        <v>1</v>
-      </c>
       <c r="AS17">
+        <v>1</v>
+      </c>
+      <c r="AU17">
         <v>1180</v>
       </c>
-      <c r="AT17">
+      <c r="AV17">
         <v>1164</v>
       </c>
-      <c r="AU17">
+      <c r="AW17">
         <v>0.50339999999999996</v>
       </c>
-      <c r="AV17">
+      <c r="AX17">
         <v>0.75680000000000003</v>
       </c>
-      <c r="AW17">
+      <c r="AY17">
         <v>1.0137</v>
       </c>
-      <c r="AX17">
-        <v>1</v>
-      </c>
-      <c r="AY17">
-        <v>1</v>
-      </c>
       <c r="AZ17">
+        <v>1</v>
+      </c>
+      <c r="BB17">
+        <v>1</v>
+      </c>
+      <c r="BC17">
         <v>67.004599999999996</v>
       </c>
-      <c r="BA17">
+      <c r="BD17">
         <v>0.50081600000000004</v>
       </c>
-      <c r="BB17">
+      <c r="BE17">
         <v>0.28799999999999998</v>
       </c>
-      <c r="BD17" t="s">
+      <c r="BG17" t="s">
         <v>79</v>
       </c>
-      <c r="BE17">
+      <c r="BH17">
         <v>40822.6</v>
       </c>
-      <c r="BG17" t="s">
+      <c r="BJ17" t="s">
         <v>93</v>
       </c>
-      <c r="BH17" t="s">
+      <c r="BK17" t="s">
         <v>199</v>
       </c>
-      <c r="BI17" t="s">
+      <c r="BL17" t="s">
         <v>207</v>
       </c>
-      <c r="BK17" t="s">
+      <c r="BN17" t="s">
         <v>208</v>
       </c>
-      <c r="BL17">
+      <c r="BO17">
         <v>3</v>
       </c>
-      <c r="BM17">
+      <c r="BP17">
         <v>4.9180327868852403E-2</v>
       </c>
-      <c r="BN17" t="s">
+      <c r="BQ17" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="18" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>194</v>
       </c>
@@ -4283,54 +4283,51 @@
       <c r="F18" t="s">
         <v>210</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>9.2735700000000001E-3</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>24</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>2588</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>5</v>
       </c>
-      <c r="L18" t="s">
+      <c r="M18" t="s">
         <v>158</v>
       </c>
-      <c r="M18" t="s">
+      <c r="N18" t="s">
         <v>159</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>11</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>13</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>1648</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>916</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>0.476652516676773</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>8.4918857181640495E-2</v>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <v>0.46153846153846101</v>
       </c>
-      <c r="AE18">
+      <c r="AF18">
         <v>0.84501898288726796</v>
       </c>
-      <c r="AF18">
+      <c r="AG18">
         <v>2571</v>
       </c>
-      <c r="AG18">
-        <v>1</v>
-      </c>
       <c r="AH18">
         <v>1</v>
       </c>
@@ -4347,17 +4344,17 @@
         <v>1</v>
       </c>
       <c r="AM18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN18">
         <v>0</v>
       </c>
       <c r="AO18">
+        <v>0</v>
+      </c>
+      <c r="AP18">
         <v>0.5</v>
       </c>
-      <c r="AP18">
-        <v>1</v>
-      </c>
       <c r="AQ18">
         <v>1</v>
       </c>
@@ -4365,57 +4362,60 @@
         <v>1</v>
       </c>
       <c r="AS18">
+        <v>1</v>
+      </c>
+      <c r="AU18">
         <v>67</v>
       </c>
-      <c r="AT18">
+      <c r="AV18">
         <v>47</v>
       </c>
-      <c r="AU18">
+      <c r="AW18">
         <v>0.58620000000000005</v>
       </c>
-      <c r="AV18">
+      <c r="AX18">
         <v>7.7299999999999994E-2</v>
       </c>
-      <c r="AW18">
+      <c r="AY18">
         <v>1.4167000000000001</v>
       </c>
-      <c r="AX18">
-        <v>1</v>
-      </c>
-      <c r="AY18">
-        <v>1</v>
-      </c>
       <c r="AZ18">
+        <v>1</v>
+      </c>
+      <c r="BB18">
+        <v>1</v>
+      </c>
+      <c r="BC18">
         <v>8.2724199999999998E-2</v>
       </c>
-      <c r="BA18">
+      <c r="BD18">
         <v>0.67837199999999998</v>
       </c>
-      <c r="BB18">
+      <c r="BE18">
         <v>0.114</v>
       </c>
-      <c r="BD18" t="s">
+      <c r="BG18" t="s">
         <v>92</v>
       </c>
-      <c r="BE18">
+      <c r="BH18">
         <v>53.522599999999997</v>
       </c>
-      <c r="BG18" t="s">
+      <c r="BJ18" t="s">
         <v>93</v>
       </c>
-      <c r="BH18" t="s">
+      <c r="BK18" t="s">
         <v>211</v>
       </c>
-      <c r="BI18" t="s">
+      <c r="BL18" t="s">
         <v>212</v>
       </c>
-      <c r="BL18">
+      <c r="BO18">
         <v>2</v>
       </c>
-      <c r="BM18">
+      <c r="BP18">
         <v>3.2786885245901599E-2</v>
       </c>
-      <c r="BN18" t="s">
+      <c r="BQ18" t="s">
         <v>213</v>
       </c>
     </row>
